--- a/data/7088.xlsx
+++ b/data/7088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42977,6 +42977,41 @@
         <v>62100</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7088</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>POHUAT</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>73300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7088.xlsx
+++ b/data/7088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43012,6 +43012,41 @@
         <v>73300</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7088</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>POHUAT</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>58000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7088.xlsx
+++ b/data/7088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43047,6 +43047,41 @@
         <v>58000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7088</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>POHUAT</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>124700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7088.xlsx
+++ b/data/7088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43082,6 +43082,41 @@
         <v>124700</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7088</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>POHUAT</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>32400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7088.xlsx
+++ b/data/7088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43117,6 +43117,41 @@
         <v>32400</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7088</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>POHUAT</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>22300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7088.xlsx
+++ b/data/7088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43152,6 +43152,41 @@
         <v>22300</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7088</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>POHUAT</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>53900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7088.xlsx
+++ b/data/7088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43187,6 +43187,41 @@
         <v>53900</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7088</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>POHUAT</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>38400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7088.xlsx
+++ b/data/7088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43222,6 +43222,41 @@
         <v>38400</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7088</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>POHUAT</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>174800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7088.xlsx
+++ b/data/7088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43257,6 +43257,41 @@
         <v>174800</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7088</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>POHUAT</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>34200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7088.xlsx
+++ b/data/7088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43292,6 +43292,41 @@
         <v>34200</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7088</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>POHUAT</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>181300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7088.xlsx
+++ b/data/7088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43327,6 +43327,41 @@
         <v>181300</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7088</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>POHUAT</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>171100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7088.xlsx
+++ b/data/7088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43362,6 +43362,41 @@
         <v>171100</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7088</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>POHUAT</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>142300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7088.xlsx
+++ b/data/7088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43397,6 +43397,76 @@
         <v>142300</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7088</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>POHUAT</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>46900</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7088</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>POHUAT</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>210900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7088.xlsx
+++ b/data/7088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43467,6 +43467,76 @@
         <v>210900</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7088</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>POHUAT</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>184200</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7088</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>POHUAT</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>80200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7088.xlsx
+++ b/data/7088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43537,6 +43537,41 @@
         <v>80200</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7088</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>POHUAT</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>89300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7088.xlsx
+++ b/data/7088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43572,6 +43572,41 @@
         <v>89300</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7088</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>POHUAT</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>134900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7088.xlsx
+++ b/data/7088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43607,6 +43607,41 @@
         <v>134900</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7088</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>POHUAT</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>200300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7088.xlsx
+++ b/data/7088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43642,6 +43642,41 @@
         <v>200300</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7088</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>POHUAT</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>531400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7088.xlsx
+++ b/data/7088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43677,6 +43677,76 @@
         <v>531400</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7088</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>POHUAT</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>124900</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7088</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>POHUAT</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>156600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7088.xlsx
+++ b/data/7088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43747,6 +43747,41 @@
         <v>156600</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7088</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>POHUAT</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>171800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7088.xlsx
+++ b/data/7088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43782,6 +43782,41 @@
         <v>171800</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7088</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>POHUAT</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>527700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7088.xlsx
+++ b/data/7088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2537"/>
+  <dimension ref="A1:I2538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89177,6 +89177,41 @@
         <v>527700</v>
       </c>
     </row>
+    <row r="2538">
+      <c r="A2538" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2538" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2538" t="inlineStr">
+        <is>
+          <t>7088</t>
+        </is>
+      </c>
+      <c r="D2538" t="inlineStr">
+        <is>
+          <t>POHUAT</t>
+        </is>
+      </c>
+      <c r="E2538" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2538" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2538" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H2538" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I2538" t="n">
+        <v>498300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7088.xlsx
+++ b/data/7088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2538"/>
+  <dimension ref="A1:I2539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89212,6 +89212,41 @@
         <v>498300</v>
       </c>
     </row>
+    <row r="2539">
+      <c r="A2539" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2539" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2539" t="inlineStr">
+        <is>
+          <t>7088</t>
+        </is>
+      </c>
+      <c r="D2539" t="inlineStr">
+        <is>
+          <t>POHUAT</t>
+        </is>
+      </c>
+      <c r="E2539" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="F2539" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="G2539" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H2539" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I2539" t="n">
+        <v>623100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7088.xlsx
+++ b/data/7088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2539"/>
+  <dimension ref="A1:I2540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89247,6 +89247,41 @@
         <v>623100</v>
       </c>
     </row>
+    <row r="2540">
+      <c r="A2540" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2540" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2540" t="inlineStr">
+        <is>
+          <t>7088</t>
+        </is>
+      </c>
+      <c r="D2540" t="inlineStr">
+        <is>
+          <t>POHUAT</t>
+        </is>
+      </c>
+      <c r="E2540" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F2540" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="G2540" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="H2540" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="I2540" t="n">
+        <v>596700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7088.xlsx
+++ b/data/7088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2540"/>
+  <dimension ref="A1:I2541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89282,6 +89282,41 @@
         <v>596700</v>
       </c>
     </row>
+    <row r="2541">
+      <c r="A2541" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2541" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2541" t="inlineStr">
+        <is>
+          <t>7088</t>
+        </is>
+      </c>
+      <c r="D2541" t="inlineStr">
+        <is>
+          <t>POHUAT</t>
+        </is>
+      </c>
+      <c r="E2541" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="F2541" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="G2541" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="H2541" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="I2541" t="n">
+        <v>392300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7088.xlsx
+++ b/data/7088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2541"/>
+  <dimension ref="A1:I2542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89317,6 +89317,41 @@
         <v>392300</v>
       </c>
     </row>
+    <row r="2542">
+      <c r="A2542" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2542" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2542" t="inlineStr">
+        <is>
+          <t>7088</t>
+        </is>
+      </c>
+      <c r="D2542" t="inlineStr">
+        <is>
+          <t>POHUAT</t>
+        </is>
+      </c>
+      <c r="E2542" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F2542" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G2542" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H2542" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I2542" t="n">
+        <v>374000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7088.xlsx
+++ b/data/7088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2542"/>
+  <dimension ref="A1:I2543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89352,6 +89352,41 @@
         <v>374000</v>
       </c>
     </row>
+    <row r="2543">
+      <c r="A2543" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2543" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2543" t="inlineStr">
+        <is>
+          <t>7088</t>
+        </is>
+      </c>
+      <c r="D2543" t="inlineStr">
+        <is>
+          <t>POHUAT</t>
+        </is>
+      </c>
+      <c r="E2543" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F2543" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G2543" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H2543" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I2543" t="n">
+        <v>291400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7088.xlsx
+++ b/data/7088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2543"/>
+  <dimension ref="A1:I2544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89387,6 +89387,41 @@
         <v>291400</v>
       </c>
     </row>
+    <row r="2544">
+      <c r="A2544" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2544" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2544" t="inlineStr">
+        <is>
+          <t>7088</t>
+        </is>
+      </c>
+      <c r="D2544" t="inlineStr">
+        <is>
+          <t>POHUAT</t>
+        </is>
+      </c>
+      <c r="E2544" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F2544" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2544" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H2544" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I2544" t="n">
+        <v>260600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7088.xlsx
+++ b/data/7088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2544"/>
+  <dimension ref="A1:I2545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89422,6 +89422,41 @@
         <v>260600</v>
       </c>
     </row>
+    <row r="2545">
+      <c r="A2545" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2545" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2545" t="inlineStr">
+        <is>
+          <t>7088</t>
+        </is>
+      </c>
+      <c r="D2545" t="inlineStr">
+        <is>
+          <t>POHUAT</t>
+        </is>
+      </c>
+      <c r="E2545" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F2545" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G2545" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H2545" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="I2545" t="n">
+        <v>316500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7088.xlsx
+++ b/data/7088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2545"/>
+  <dimension ref="A1:I2546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89457,6 +89457,41 @@
         <v>316500</v>
       </c>
     </row>
+    <row r="2546">
+      <c r="A2546" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2546" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2546" t="inlineStr">
+        <is>
+          <t>7088</t>
+        </is>
+      </c>
+      <c r="D2546" t="inlineStr">
+        <is>
+          <t>POHUAT</t>
+        </is>
+      </c>
+      <c r="E2546" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F2546" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="G2546" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H2546" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I2546" t="n">
+        <v>200000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7088.xlsx
+++ b/data/7088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2546"/>
+  <dimension ref="A1:I2547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89492,6 +89492,41 @@
         <v>200000</v>
       </c>
     </row>
+    <row r="2547">
+      <c r="A2547" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2547" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2547" t="inlineStr">
+        <is>
+          <t>7088</t>
+        </is>
+      </c>
+      <c r="D2547" t="inlineStr">
+        <is>
+          <t>POHUAT</t>
+        </is>
+      </c>
+      <c r="E2547" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="F2547" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G2547" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="H2547" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="I2547" t="n">
+        <v>708700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7088.xlsx
+++ b/data/7088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2547"/>
+  <dimension ref="A1:I2548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89527,6 +89527,41 @@
         <v>708700</v>
       </c>
     </row>
+    <row r="2548">
+      <c r="A2548" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2548" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2548" t="inlineStr">
+        <is>
+          <t>7088</t>
+        </is>
+      </c>
+      <c r="D2548" t="inlineStr">
+        <is>
+          <t>POHUAT</t>
+        </is>
+      </c>
+      <c r="E2548" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="F2548" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="G2548" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H2548" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I2548" t="n">
+        <v>278600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7088.xlsx
+++ b/data/7088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2548"/>
+  <dimension ref="A1:I2549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89562,6 +89562,41 @@
         <v>278600</v>
       </c>
     </row>
+    <row r="2549">
+      <c r="A2549" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2549" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2549" t="inlineStr">
+        <is>
+          <t>7088</t>
+        </is>
+      </c>
+      <c r="D2549" t="inlineStr">
+        <is>
+          <t>POHUAT</t>
+        </is>
+      </c>
+      <c r="E2549" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F2549" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G2549" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H2549" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="I2549" t="n">
+        <v>199800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7088.xlsx
+++ b/data/7088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2549"/>
+  <dimension ref="A1:I2550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89597,6 +89597,41 @@
         <v>199800</v>
       </c>
     </row>
+    <row r="2550">
+      <c r="A2550" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2550" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2550" t="inlineStr">
+        <is>
+          <t>7088</t>
+        </is>
+      </c>
+      <c r="D2550" t="inlineStr">
+        <is>
+          <t>POHUAT</t>
+        </is>
+      </c>
+      <c r="E2550" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="F2550" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G2550" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H2550" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I2550" t="n">
+        <v>225400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7088.xlsx
+++ b/data/7088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2550"/>
+  <dimension ref="A1:I2551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89632,6 +89632,41 @@
         <v>225400</v>
       </c>
     </row>
+    <row r="2551">
+      <c r="A2551" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2551" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2551" t="inlineStr">
+        <is>
+          <t>7088</t>
+        </is>
+      </c>
+      <c r="D2551" t="inlineStr">
+        <is>
+          <t>POHUAT</t>
+        </is>
+      </c>
+      <c r="E2551" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F2551" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G2551" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H2551" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I2551" t="n">
+        <v>542200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7088.xlsx
+++ b/data/7088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2551"/>
+  <dimension ref="A1:I2552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89667,6 +89667,41 @@
         <v>542200</v>
       </c>
     </row>
+    <row r="2552">
+      <c r="A2552" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2552" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2552" t="inlineStr">
+        <is>
+          <t>7088</t>
+        </is>
+      </c>
+      <c r="D2552" t="inlineStr">
+        <is>
+          <t>POHUAT</t>
+        </is>
+      </c>
+      <c r="E2552" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="F2552" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G2552" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="H2552" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I2552" t="n">
+        <v>330200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
